--- a/stats of comparisons.xlsx
+++ b/stats of comparisons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Education\Uni\FINAL_Year\Dissertation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F08563F-8FCF-4AC3-AD41-BDA44D2357C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261BE0CF-BD62-4858-B3DB-5678A754F8A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A5293109-9A9A-4D29-9A3D-DCAEEEE50D53}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="7">
   <si>
     <t>NaN</t>
   </si>
@@ -91,10 +91,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D67BC0-35E5-4B63-98F7-F5D0CAA45D67}">
-  <dimension ref="B2:O23"/>
+  <dimension ref="B2:AE23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,19 +420,19 @@
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="L2" s="1" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="L2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>3.7070252358758299E-2</v>
       </c>
@@ -463,8 +463,38 @@
       <c r="O4">
         <v>4.5814457207404402E-2</v>
       </c>
+      <c r="R4">
+        <v>3.7070252358758299E-2</v>
+      </c>
+      <c r="S4">
+        <v>4.52772434201337E-2</v>
+      </c>
+      <c r="T4">
+        <v>4.5222728461540698E-2</v>
+      </c>
+      <c r="U4">
+        <v>5.7142550395801399E-2</v>
+      </c>
+      <c r="V4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0.109091352958283</v>
+      </c>
+      <c r="AB4">
+        <v>3.9237029185265802E-2</v>
+      </c>
+      <c r="AC4">
+        <v>9.7361990172002102E-2</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>4.5814457207404402E-2</v>
+      </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2.9599108814027698E-2</v>
       </c>
@@ -480,11 +510,11 @@
       <c r="F5">
         <v>1.9007609762988601E-2</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="1"/>
       <c r="K5">
         <v>3.2399184106931697E-2</v>
       </c>
@@ -500,8 +530,43 @@
       <c r="O5">
         <v>2.87509407118503E-2</v>
       </c>
+      <c r="R5">
+        <v>2.9599108814027698E-2</v>
+      </c>
+      <c r="S5">
+        <v>0.28981213350422802</v>
+      </c>
+      <c r="T5">
+        <v>5.0893826011012201E-2</v>
+      </c>
+      <c r="U5">
+        <v>1.8923125756805399E-2</v>
+      </c>
+      <c r="V5">
+        <v>1.9007609762988601E-2</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5">
+        <v>3.2399184106931697E-2</v>
+      </c>
+      <c r="AB5">
+        <v>0.18674436428435601</v>
+      </c>
+      <c r="AC5">
+        <v>5.7154397418480003E-2</v>
+      </c>
+      <c r="AD5">
+        <v>3.8034669306380997E-2</v>
+      </c>
+      <c r="AE5">
+        <v>2.87509407118503E-2</v>
+      </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2.6138444125195899E-2</v>
       </c>
@@ -532,8 +597,38 @@
       <c r="O6">
         <v>4.7758533186458098E-2</v>
       </c>
+      <c r="R6">
+        <v>2.6138444125195899E-2</v>
+      </c>
+      <c r="S6">
+        <v>9.4496008984368995E-2</v>
+      </c>
+      <c r="T6">
+        <v>0.34809040457825702</v>
+      </c>
+      <c r="U6">
+        <v>1.8842004493847899E-2</v>
+      </c>
+      <c r="V6">
+        <v>4.0359155621385798E-2</v>
+      </c>
+      <c r="AA6">
+        <v>7.3124911326957698E-2</v>
+      </c>
+      <c r="AB6">
+        <v>0.106038040678218</v>
+      </c>
+      <c r="AC6">
+        <v>0.42445837538753001</v>
+      </c>
+      <c r="AD6">
+        <v>3.9552059312990197E-2</v>
+      </c>
+      <c r="AE6">
+        <v>4.7758533186458098E-2</v>
+      </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>7.0429878195652607E-2</v>
       </c>
@@ -565,7 +660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>1.9809100053817402E-2</v>
       </c>
@@ -581,11 +676,11 @@
       <c r="F10">
         <v>1.1968911471256199E-2</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="1"/>
       <c r="K10">
         <v>2.1295199825766099E-2</v>
       </c>
@@ -602,7 +697,7 @@
         <v>2.46961442691053E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>1.8851670816816799E-2</v>
       </c>
@@ -634,17 +729,17 @@
         <v>3.3693680446220502E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B15">
         <f>IF(B9&gt;=B4,B9-B4,B4-B9)</f>
         <v>3.3359625836894308E-2</v>
       </c>
       <c r="E15">
-        <f t="shared" ref="C15:F15" si="0">IF(E9&gt;=E4,E9-E4,E4-E9)</f>
+        <f t="shared" ref="E15" si="0">IF(E9&gt;=E4,E9-E4,E4-E9)</f>
         <v>2.0419089608901597E-2</v>
       </c>
       <c r="K15">
-        <f t="shared" ref="G15:O15" si="1">IF(K9&gt;=K4,K9-K4,K4-K9)</f>
+        <f t="shared" ref="K15:M15" si="1">IF(K9&gt;=K4,K9-K4,K4-K9)</f>
         <v>4.8868585418021096E-2</v>
       </c>
       <c r="M15">
@@ -652,7 +747,7 @@
         <v>4.8520771280213905E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B16">
         <f t="shared" ref="B16:F17" si="2">IF(B10&gt;=B5,B10-B5,B5-B10)</f>
         <v>9.7900087602102968E-3</v>
@@ -673,12 +768,12 @@
         <f t="shared" si="2"/>
         <v>7.0386982917324016E-3</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I16" s="1"/>
+      <c r="I16" s="2"/>
       <c r="K16">
-        <f t="shared" ref="G16:O16" si="3">IF(K10&gt;=K5,K10-K5,K5-K10)</f>
+        <f t="shared" ref="K16:O16" si="3">IF(K10&gt;=K5,K10-K5,K5-K10)</f>
         <v>1.1103984281165599E-2</v>
       </c>
       <c r="L16">
@@ -716,7 +811,7 @@
         <v>1.6295370373156995E-3</v>
       </c>
       <c r="K17">
-        <f t="shared" ref="G17:O17" si="4">IF(K11&gt;=K6,K11-K6,K6-K11)</f>
+        <f t="shared" ref="K17:O17" si="4">IF(K11&gt;=K6,K11-K6,K6-K11)</f>
         <v>2.9530096481962947E-3</v>
       </c>
       <c r="L17">
@@ -750,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <f t="shared" si="5"/>
+        <f>E15*100</f>
         <v>2.0419089608901597</v>
       </c>
       <c r="F21">
@@ -799,10 +894,10 @@
         <f t="shared" si="6"/>
         <v>0.70386982917324015</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I22" s="1"/>
+      <c r="I22" s="2"/>
       <c r="K22">
         <f t="shared" si="6"/>
         <v>1.1103984281165598</v>
@@ -867,7 +962,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="X5:Y5"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="L2:N2"/>
@@ -876,7 +972,7 @@
     <mergeCell ref="H5:I5"/>
   </mergeCells>
   <conditionalFormatting sqref="B15:O15 B17:O17 B16:H16 J16:O16">
-    <cfRule type="colorScale" priority="13">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -888,79 +984,79 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F6">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:F11">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4:O6">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9:O11">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9:F11">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4:O6">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9:O11">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
         <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
@@ -968,7 +1064,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15:O17">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -978,7 +1074,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -988,7 +1084,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:F17">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -998,12 +1094,112 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R4:V6">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA4:AE6">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R4:R6">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S4:S6">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T4:T6">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA4:AA6">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB4:AB6">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC4:AC6">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
